--- a/run_log/run_results/train_history/training_history_run_12.xlsx
+++ b/run_log/run_results/train_history/training_history_run_12.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04348072782158852</v>
+        <v>0.1123934388160706</v>
       </c>
       <c r="B2">
-        <v>0.9888461828231812</v>
+        <v>0.971966028213501</v>
       </c>
       <c r="C2">
-        <v>0.02550964429974556</v>
+        <v>0.1832341998815536</v>
       </c>
       <c r="D2">
-        <v>0.9963051676750183</v>
+        <v>0.9640758037567139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.006307906936854124</v>
+        <v>0.03439721837639809</v>
       </c>
       <c r="B3">
-        <v>0.9987424612045288</v>
+        <v>0.9948846101760864</v>
       </c>
       <c r="C3">
-        <v>0.01434246078133583</v>
+        <v>0.1548818647861481</v>
       </c>
       <c r="D3">
-        <v>0.9973918795585632</v>
+        <v>0.972711980342865</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002532432088628411</v>
+        <v>0.02351918816566467</v>
       </c>
       <c r="B4">
-        <v>0.9992709755897522</v>
+        <v>0.9951262474060059</v>
       </c>
       <c r="C4">
-        <v>0.0049860505387187</v>
+        <v>0.2566820681095123</v>
       </c>
       <c r="D4">
-        <v>0.9986959099769592</v>
+        <v>0.9628163576126099</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001598973176442087</v>
+        <v>0.01623832806944847</v>
       </c>
       <c r="B5">
-        <v>0.9996172785758972</v>
+        <v>0.9958714246749878</v>
       </c>
       <c r="C5">
-        <v>0.006151103880256414</v>
+        <v>0.1675897836685181</v>
       </c>
       <c r="D5">
-        <v>0.9984785914421082</v>
+        <v>0.9646755456924438</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0006540693575516343</v>
+        <v>0.01476242206990719</v>
       </c>
       <c r="B6">
-        <v>0.9998177289962769</v>
+        <v>0.9960526823997498</v>
       </c>
       <c r="C6">
-        <v>0.006092283874750137</v>
+        <v>0.1285722106695175</v>
       </c>
       <c r="D6">
-        <v>0.9991306066513062</v>
+        <v>0.9679141044616699</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001141499262303114</v>
+        <v>0.01422001048922539</v>
       </c>
       <c r="B7">
-        <v>0.9997084140777588</v>
+        <v>0.9960325360298157</v>
       </c>
       <c r="C7">
-        <v>0.005922461394220591</v>
+        <v>0.1272723227739334</v>
       </c>
       <c r="D7">
-        <v>0.9991306066513062</v>
+        <v>0.9665347337722778</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0004963899264112115</v>
+        <v>0.01321360468864441</v>
       </c>
       <c r="B8">
-        <v>0.9998542070388794</v>
+        <v>0.996314525604248</v>
       </c>
       <c r="C8">
-        <v>0.01396417617797852</v>
+        <v>0.06546110659837723</v>
       </c>
       <c r="D8">
-        <v>0.9984785914421082</v>
+        <v>0.980268657207489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003444614703767002</v>
+        <v>0.01266224682331085</v>
       </c>
       <c r="B9">
-        <v>0.9999088644981384</v>
+        <v>0.9952874183654785</v>
       </c>
       <c r="C9">
-        <v>0.004712056834250689</v>
+        <v>0.1250831931829453</v>
       </c>
       <c r="D9">
-        <v>0.9995653033256531</v>
+        <v>0.9649754166603088</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006510139210149646</v>
+        <v>0.01040862593799829</v>
       </c>
       <c r="B10">
-        <v>0.9998724460601807</v>
+        <v>0.9961533546447754</v>
       </c>
       <c r="C10">
-        <v>0.008122365921735764</v>
+        <v>0.178564578294754</v>
       </c>
       <c r="D10">
-        <v>0.9989132881164551</v>
+        <v>0.980268657207489</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0003956580476369709</v>
+        <v>0.01054994016885757</v>
       </c>
       <c r="B11">
-        <v>0.9998724460601807</v>
+        <v>0.9960728287696838</v>
       </c>
       <c r="C11">
-        <v>0.004355940967798233</v>
+        <v>0.9057216048240662</v>
       </c>
       <c r="D11">
-        <v>0.999347984790802</v>
+        <v>0.9637759327888489</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0002396495692664757</v>
+        <v>0.01094087306410074</v>
       </c>
       <c r="B12">
-        <v>0.9999271035194397</v>
+        <v>0.9957506060600281</v>
       </c>
       <c r="C12">
-        <v>0.003397903172299266</v>
+        <v>0.2150459587574005</v>
       </c>
       <c r="D12">
-        <v>0.9997826814651489</v>
+        <v>0.967974066734314</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.000235039129620418</v>
+        <v>0.01005828566849232</v>
       </c>
       <c r="B13">
-        <v>0.9998906254768372</v>
+        <v>0.9962339401245117</v>
       </c>
       <c r="C13">
-        <v>0.003680572612211108</v>
+        <v>0.1154960617423058</v>
       </c>
       <c r="D13">
-        <v>0.9995653033256531</v>
+        <v>0.970492959022522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.000887360714841634</v>
+        <v>0.01010001171380281</v>
       </c>
       <c r="B14">
-        <v>0.9998359680175781</v>
+        <v>0.9960325360298157</v>
       </c>
       <c r="C14">
-        <v>0.00980822928249836</v>
+        <v>0.2367822378873825</v>
       </c>
       <c r="D14">
-        <v>0.9989132881164551</v>
+        <v>0.9652153253555298</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0002227435325039551</v>
+        <v>0.01111012697219849</v>
       </c>
       <c r="B15">
-        <v>0.9999088644981384</v>
+        <v>0.995549201965332</v>
       </c>
       <c r="C15">
-        <v>0.00514875864610076</v>
+        <v>0.05751046910881996</v>
       </c>
       <c r="D15">
-        <v>0.9995653033256531</v>
+        <v>0.9766103029251099</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0002221215254394338</v>
+        <v>0.01005673594772816</v>
       </c>
       <c r="B16">
-        <v>0.9999271035194397</v>
+        <v>0.9958915710449219</v>
       </c>
       <c r="C16">
-        <v>0.01498501002788544</v>
+        <v>0.06596826761960983</v>
       </c>
       <c r="D16">
-        <v>0.9986959099769592</v>
+        <v>0.9745112061500549</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003244532272219658</v>
+        <v>0.009530850686132908</v>
       </c>
       <c r="B17">
-        <v>0.9998906254768372</v>
+        <v>0.9962742328643799</v>
       </c>
       <c r="C17">
-        <v>0.01535739284008741</v>
+        <v>0.09884276986122131</v>
       </c>
       <c r="D17">
-        <v>0.9984785914421082</v>
+        <v>0.9692935347557068</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0001554485352244228</v>
+        <v>0.01059283502399921</v>
       </c>
       <c r="B18">
-        <v>0.9999271035194397</v>
+        <v>0.9959922432899475</v>
       </c>
       <c r="C18">
-        <v>0.01445527467876673</v>
+        <v>0.06586039811372757</v>
       </c>
       <c r="D18">
-        <v>0.9984785914421082</v>
+        <v>0.975170910358429</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0001133774567279033</v>
+        <v>0.009903394617140293</v>
       </c>
       <c r="B19">
-        <v>0.9999635219573975</v>
+        <v>0.9961533546447754</v>
       </c>
       <c r="C19">
-        <v>0.007927140220999718</v>
+        <v>0.3105689287185669</v>
       </c>
       <c r="D19">
-        <v>0.9989132881164551</v>
+        <v>0.9650953412055969</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0007925777463242412</v>
+        <v>0.009330163709819317</v>
       </c>
       <c r="B20">
-        <v>0.9998724460601807</v>
+        <v>0.9965561628341675</v>
       </c>
       <c r="C20">
-        <v>0.004721860401332378</v>
+        <v>0.06204283982515335</v>
       </c>
       <c r="D20">
-        <v>0.9991306066513062</v>
+        <v>0.9806885123252869</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004813632695004344</v>
+        <v>0.009298390708863735</v>
       </c>
       <c r="B21">
-        <v>0.9998906254768372</v>
+        <v>0.9964151978492737</v>
       </c>
       <c r="C21">
-        <v>0.004082261584699154</v>
+        <v>0.1735512316226959</v>
       </c>
       <c r="D21">
-        <v>0.9995653033256531</v>
+        <v>0.9713925719261169</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0002127763727912679</v>
+        <v>0.008956391364336014</v>
       </c>
       <c r="B22">
-        <v>0.999945342540741</v>
+        <v>0.9965561628341675</v>
       </c>
       <c r="C22">
-        <v>0.006315764039754868</v>
+        <v>0.1155397593975067</v>
       </c>
       <c r="D22">
-        <v>0.9991306066513062</v>
+        <v>0.975170910358429</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.28129049699055E-05</v>
+        <v>0.009665176272392273</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.996294379234314</v>
       </c>
       <c r="C23">
-        <v>0.007514690980315208</v>
+        <v>0.07594694197177887</v>
       </c>
       <c r="D23">
-        <v>0.9989132881164551</v>
+        <v>0.978349506855011</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003344109281897545</v>
+        <v>0.009667582809925079</v>
       </c>
       <c r="B24">
-        <v>0.9998906254768372</v>
+        <v>0.9963950514793396</v>
       </c>
       <c r="C24">
-        <v>0.008307181298732758</v>
+        <v>0.1759065687656403</v>
       </c>
       <c r="D24">
-        <v>0.9989132881164551</v>
+        <v>0.980208694934845</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>4.494013046496548E-05</v>
+        <v>0.009989517740905285</v>
       </c>
       <c r="B25">
-        <v>0.9999817609786987</v>
+        <v>0.9961332678794861</v>
       </c>
       <c r="C25">
-        <v>0.006157245021313429</v>
+        <v>0.1573716700077057</v>
       </c>
       <c r="D25">
-        <v>0.9995653033256531</v>
+        <v>0.977389931678772</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.000168903949088417</v>
+        <v>0.009449370205402374</v>
       </c>
       <c r="B26">
-        <v>0.999945342540741</v>
+        <v>0.9962742328643799</v>
       </c>
       <c r="C26">
-        <v>0.0101509653031826</v>
+        <v>0.1634015142917633</v>
       </c>
       <c r="D26">
-        <v>0.999347984790802</v>
+        <v>0.9765503406524658</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.149596750517958E-06</v>
+        <v>0.009820982813835144</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.99593186378479</v>
       </c>
       <c r="C27">
-        <v>0.01028325036168098</v>
+        <v>0.2300786226987839</v>
       </c>
       <c r="D27">
-        <v>0.999347984790802</v>
+        <v>0.9712126851081848</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>3.182710861437954E-05</v>
+        <v>0.009406714700162411</v>
       </c>
       <c r="B28">
-        <v>0.9999817609786987</v>
+        <v>0.9962742328643799</v>
       </c>
       <c r="C28">
-        <v>0.009970172308385372</v>
+        <v>0.2333690673112869</v>
       </c>
       <c r="D28">
-        <v>0.9986959099769592</v>
+        <v>0.9706129431724548</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0001052235747920349</v>
+        <v>0.01005732268095016</v>
       </c>
       <c r="B29">
-        <v>0.9999817609786987</v>
+        <v>0.9958512783050537</v>
       </c>
       <c r="C29">
-        <v>0.004475110676139593</v>
+        <v>0.1967078000307083</v>
       </c>
       <c r="D29">
-        <v>0.9997826814651489</v>
+        <v>0.9700731635093689</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001970578159671277</v>
+        <v>0.009267360903322697</v>
       </c>
       <c r="B30">
-        <v>0.999945342540741</v>
+        <v>0.9964756369590759</v>
       </c>
       <c r="C30">
-        <v>0.009035599417984486</v>
+        <v>0.2927499413490295</v>
       </c>
       <c r="D30">
-        <v>0.9995653033256531</v>
+        <v>0.9649754166603088</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0004065551329404116</v>
+        <v>0.009580289945006371</v>
       </c>
       <c r="B31">
-        <v>0.9998906254768372</v>
+        <v>0.9962540864944458</v>
       </c>
       <c r="C31">
-        <v>0.01737342961132526</v>
+        <v>0.3831363916397095</v>
       </c>
       <c r="D31">
-        <v>0.9989132881164551</v>
+        <v>0.9637759327888489</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000321809813613072</v>
+        <v>0.01025163196027279</v>
       </c>
       <c r="B32">
-        <v>0.9999271035194397</v>
+        <v>0.9957506060600281</v>
       </c>
       <c r="C32">
-        <v>0.01533227879554033</v>
+        <v>0.1829472333192825</v>
       </c>
       <c r="D32">
-        <v>0.9989132881164551</v>
+        <v>0.9690536260604858</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2.540252717153635E-05</v>
+        <v>0.009573078714311123</v>
       </c>
       <c r="B33">
-        <v>0.9999817609786987</v>
+        <v>0.9962540864944458</v>
       </c>
       <c r="C33">
-        <v>0.01899068243801594</v>
+        <v>0.2682713866233826</v>
       </c>
       <c r="D33">
-        <v>0.9984785914421082</v>
+        <v>0.9683939218521118</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001863371871877462</v>
+        <v>0.01009725034236908</v>
       </c>
       <c r="B34">
-        <v>0.9999088644981384</v>
+        <v>0.9960728287696838</v>
       </c>
       <c r="C34">
-        <v>0.004755402449518442</v>
+        <v>0.3443035185337067</v>
       </c>
       <c r="D34">
-        <v>0.9997826814651489</v>
+        <v>0.9718124270439148</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.000123915946460329</v>
+        <v>0.009603223763406277</v>
       </c>
       <c r="B35">
-        <v>0.999945342540741</v>
+        <v>0.9962137937545776</v>
       </c>
       <c r="C35">
-        <v>0.02068557217717171</v>
+        <v>0.231240525841713</v>
       </c>
       <c r="D35">
-        <v>0.9989132881164551</v>
+        <v>0.9694734215736389</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001817019656300545</v>
+        <v>0.0098005635663867</v>
       </c>
       <c r="B36">
-        <v>0.999945342540741</v>
+        <v>0.9958915710449219</v>
       </c>
       <c r="C36">
-        <v>0.01324212923645973</v>
+        <v>0.1503342390060425</v>
       </c>
       <c r="D36">
-        <v>0.9991306066513062</v>
+        <v>0.973971426486969</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0002797853958327323</v>
+        <v>0.01015686243772507</v>
       </c>
       <c r="B37">
-        <v>0.9999271035194397</v>
+        <v>0.9959721565246582</v>
       </c>
       <c r="C37">
-        <v>0.01159398164600134</v>
+        <v>0.3093985617160797</v>
       </c>
       <c r="D37">
-        <v>0.9989132881164551</v>
+        <v>0.9712726473808289</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001276113762287423</v>
+        <v>0.009744091890752316</v>
       </c>
       <c r="B38">
-        <v>0.999945342540741</v>
+        <v>0.996294379234314</v>
       </c>
       <c r="C38">
-        <v>0.009246677160263062</v>
+        <v>0.1099157631397247</v>
       </c>
       <c r="D38">
-        <v>0.9991306066513062</v>
+        <v>0.97990882396698</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0006668895948678255</v>
+        <v>0.009700843133032322</v>
       </c>
       <c r="B39">
-        <v>0.9999271035194397</v>
+        <v>0.9960728287696838</v>
       </c>
       <c r="C39">
-        <v>0.00720010232180357</v>
+        <v>0.1055428311228752</v>
       </c>
       <c r="D39">
-        <v>0.9995653033256531</v>
+        <v>0.9798488616943359</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>6.160779776109848E-06</v>
+        <v>0.009139979258179665</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9963547587394714</v>
       </c>
       <c r="C40">
-        <v>0.006879798602312803</v>
+        <v>0.1240906268358231</v>
       </c>
       <c r="D40">
-        <v>0.9995653033256531</v>
+        <v>0.9797289371490479</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002951762871816754</v>
+        <v>0.009362573735415936</v>
       </c>
       <c r="B41">
-        <v>0.9999635219573975</v>
+        <v>0.9961936473846436</v>
       </c>
       <c r="C41">
-        <v>0.00780573533847928</v>
+        <v>0.1166778355836868</v>
       </c>
       <c r="D41">
-        <v>0.9995653033256531</v>
+        <v>0.9787693619728088</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0002347247500438243</v>
+        <v>0.009473733603954315</v>
       </c>
       <c r="B42">
-        <v>0.9999271035194397</v>
+        <v>0.9960728287696838</v>
       </c>
       <c r="C42">
-        <v>0.01025894843041897</v>
+        <v>0.1442940086126328</v>
       </c>
       <c r="D42">
-        <v>0.9989132881164551</v>
+        <v>0.9794290661811829</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>5.862528632860631E-05</v>
+        <v>0.009274868294596672</v>
       </c>
       <c r="B43">
-        <v>0.9999817609786987</v>
+        <v>0.996314525604248</v>
       </c>
       <c r="C43">
-        <v>0.008282897062599659</v>
+        <v>0.1640205383300781</v>
       </c>
       <c r="D43">
-        <v>0.999347984790802</v>
+        <v>0.9734916687011719</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.821409205149394E-05</v>
+        <v>0.009323383681476116</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9964151978492737</v>
       </c>
       <c r="C44">
-        <v>0.008982419036328793</v>
+        <v>0.1757345795631409</v>
       </c>
       <c r="D44">
-        <v>0.9995653033256531</v>
+        <v>0.973311722278595</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1.38274936034577E-06</v>
+        <v>0.009857775643467903</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9961533546447754</v>
       </c>
       <c r="C45">
-        <v>0.007635768502950668</v>
+        <v>0.2958787083625793</v>
       </c>
       <c r="D45">
-        <v>0.9991306066513062</v>
+        <v>0.971152663230896</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.001034109038300812</v>
+        <v>0.0102083683013916</v>
       </c>
       <c r="B46">
-        <v>0.9998359680175781</v>
+        <v>0.9960325360298157</v>
       </c>
       <c r="C46">
-        <v>0.008259906433522701</v>
+        <v>0.2085209339857101</v>
       </c>
       <c r="D46">
-        <v>0.9989132881164551</v>
+        <v>0.9766103029251099</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0002147136547137052</v>
+        <v>0.009398402646183968</v>
       </c>
       <c r="B47">
-        <v>0.9999817609786987</v>
+        <v>0.9962540864944458</v>
       </c>
       <c r="C47">
-        <v>0.00667668180540204</v>
+        <v>0.2676562070846558</v>
       </c>
       <c r="D47">
-        <v>0.9989132881164551</v>
+        <v>0.9762504696846008</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003389066550880671</v>
+        <v>0.009122703224420547</v>
       </c>
       <c r="B48">
-        <v>0.999945342540741</v>
+        <v>0.9964756369590759</v>
       </c>
       <c r="C48">
-        <v>0.007086527068167925</v>
+        <v>0.3532766401767731</v>
       </c>
       <c r="D48">
-        <v>0.999347984790802</v>
+        <v>0.9671944379806519</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>8.880274253897369E-05</v>
+        <v>0.009525710716843605</v>
       </c>
       <c r="B49">
-        <v>0.9999635219573975</v>
+        <v>0.996294379234314</v>
       </c>
       <c r="C49">
-        <v>0.01284720283001661</v>
+        <v>0.159237340092659</v>
       </c>
       <c r="D49">
-        <v>0.9991306066513062</v>
+        <v>0.974571168422699</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.5015371395275E-05</v>
+        <v>0.00971679575741291</v>
       </c>
       <c r="B50">
-        <v>0.9999817609786987</v>
+        <v>0.9964756369590759</v>
       </c>
       <c r="C50">
-        <v>0.008232379332184792</v>
+        <v>0.2286625355482101</v>
       </c>
       <c r="D50">
-        <v>0.999347984790802</v>
+        <v>0.9811083078384399</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0003049664082936943</v>
+        <v>0.008815038949251175</v>
       </c>
       <c r="B51">
-        <v>0.999945342540741</v>
+        <v>0.9966367483139038</v>
       </c>
       <c r="C51">
-        <v>0.006710212212055922</v>
+        <v>0.07393866032361984</v>
       </c>
       <c r="D51">
-        <v>0.9995653033256531</v>
+        <v>0.9815881252288818</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_12.xlsx
+++ b/run_log/run_results/train_history/training_history_run_12.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1123934388160706</v>
+        <v>0.0824323296546936</v>
       </c>
       <c r="B2">
-        <v>0.971966028213501</v>
+        <v>0.9748566150665283</v>
       </c>
       <c r="C2">
-        <v>0.1832341998815536</v>
+        <v>0.006113679148256779</v>
       </c>
       <c r="D2">
-        <v>0.9640758037567139</v>
+        <v>0.9988725185394287</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03439721837639809</v>
+        <v>0.01370509807020426</v>
       </c>
       <c r="B3">
-        <v>0.9948846101760864</v>
+        <v>0.9979769587516785</v>
       </c>
       <c r="C3">
-        <v>0.1548818647861481</v>
+        <v>0.004111779853701591</v>
       </c>
       <c r="D3">
-        <v>0.972711980342865</v>
+        <v>0.9991857409477234</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02351918816566467</v>
+        <v>0.007159413304179907</v>
       </c>
       <c r="B4">
-        <v>0.9951262474060059</v>
+        <v>0.9984883069992065</v>
       </c>
       <c r="C4">
-        <v>0.2566820681095123</v>
+        <v>0.001753899501636624</v>
       </c>
       <c r="D4">
-        <v>0.9628163576126099</v>
+        <v>0.9993109703063965</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01623832806944847</v>
+        <v>0.00332766305655241</v>
       </c>
       <c r="B5">
-        <v>0.9958714246749878</v>
+        <v>0.9990440607070923</v>
       </c>
       <c r="C5">
-        <v>0.1675897836685181</v>
+        <v>0.001535735558718443</v>
       </c>
       <c r="D5">
-        <v>0.9646755456924438</v>
+        <v>0.9996868371963501</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01476242206990719</v>
+        <v>0.002264477545395494</v>
       </c>
       <c r="B6">
-        <v>0.9960526823997498</v>
+        <v>0.9994664788246155</v>
       </c>
       <c r="C6">
-        <v>0.1285722106695175</v>
+        <v>0.0009781834669411182</v>
       </c>
       <c r="D6">
-        <v>0.9679141044616699</v>
+        <v>0.9996868371963501</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01422001048922539</v>
+        <v>0.002399859018623829</v>
       </c>
       <c r="B7">
-        <v>0.9960325360298157</v>
+        <v>0.999422013759613</v>
       </c>
       <c r="C7">
-        <v>0.1272723227739334</v>
+        <v>8.987339970190078E-05</v>
       </c>
       <c r="D7">
-        <v>0.9665347337722778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01321360468864441</v>
+        <v>0.001158138504251838</v>
       </c>
       <c r="B8">
-        <v>0.996314525604248</v>
+        <v>0.9997109770774841</v>
       </c>
       <c r="C8">
-        <v>0.06546110659837723</v>
+        <v>3.616682442952879E-05</v>
       </c>
       <c r="D8">
-        <v>0.980268657207489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01266224682331085</v>
+        <v>0.001736437901854515</v>
       </c>
       <c r="B9">
-        <v>0.9952874183654785</v>
+        <v>0.9996442794799805</v>
       </c>
       <c r="C9">
-        <v>0.1250831931829453</v>
+        <v>0.0001349693920928985</v>
       </c>
       <c r="D9">
-        <v>0.9649754166603088</v>
+        <v>0.9999373555183411</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01040862593799829</v>
+        <v>0.001339558861218393</v>
       </c>
       <c r="B10">
-        <v>0.9961533546447754</v>
+        <v>0.9996665120124817</v>
       </c>
       <c r="C10">
-        <v>0.178564578294754</v>
+        <v>2.29524121095892E-05</v>
       </c>
       <c r="D10">
-        <v>0.980268657207489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01054994016885757</v>
+        <v>0.001065940363332629</v>
       </c>
       <c r="B11">
-        <v>0.9960728287696838</v>
+        <v>0.9997776746749878</v>
       </c>
       <c r="C11">
-        <v>0.9057216048240662</v>
+        <v>2.381267950113397E-05</v>
       </c>
       <c r="D11">
-        <v>0.9637759327888489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01094087306410074</v>
+        <v>0.0003433195233810693</v>
       </c>
       <c r="B12">
-        <v>0.9957506060600281</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C12">
-        <v>0.2150459587574005</v>
+        <v>1.132065426645568E-05</v>
       </c>
       <c r="D12">
-        <v>0.967974066734314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01005828566849232</v>
+        <v>0.0007776007987558842</v>
       </c>
       <c r="B13">
-        <v>0.9962339401245117</v>
+        <v>0.9998221397399902</v>
       </c>
       <c r="C13">
-        <v>0.1154960617423058</v>
+        <v>3.808496330748312E-05</v>
       </c>
       <c r="D13">
-        <v>0.970492959022522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01010001171380281</v>
+        <v>0.001303939265199006</v>
       </c>
       <c r="B14">
-        <v>0.9960325360298157</v>
+        <v>0.9997332096099854</v>
       </c>
       <c r="C14">
-        <v>0.2367822378873825</v>
+        <v>8.416981290793046E-05</v>
       </c>
       <c r="D14">
-        <v>0.9652153253555298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.01111012697219849</v>
+        <v>0.001029768958687782</v>
       </c>
       <c r="B15">
-        <v>0.995549201965332</v>
+        <v>0.9998221397399902</v>
       </c>
       <c r="C15">
-        <v>0.05751046910881996</v>
+        <v>2.416085408185609E-05</v>
       </c>
       <c r="D15">
-        <v>0.9766103029251099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.01005673594772816</v>
+        <v>0.0008170958026312292</v>
       </c>
       <c r="B16">
-        <v>0.9958915710449219</v>
+        <v>0.9997776746749878</v>
       </c>
       <c r="C16">
-        <v>0.06596826761960983</v>
+        <v>8.396458724746481E-06</v>
       </c>
       <c r="D16">
-        <v>0.9745112061500549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.009530850686132908</v>
+        <v>0.0008297882159240544</v>
       </c>
       <c r="B17">
-        <v>0.9962742328643799</v>
+        <v>0.9997554421424866</v>
       </c>
       <c r="C17">
-        <v>0.09884276986122131</v>
+        <v>0.0002803757088258862</v>
       </c>
       <c r="D17">
-        <v>0.9692935347557068</v>
+        <v>0.9999373555183411</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.01059283502399921</v>
+        <v>0.0007838148158043623</v>
       </c>
       <c r="B18">
-        <v>0.9959922432899475</v>
+        <v>0.9998443722724915</v>
       </c>
       <c r="C18">
-        <v>0.06586039811372757</v>
+        <v>4.926147448713891E-05</v>
       </c>
       <c r="D18">
-        <v>0.975170910358429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.009903394617140293</v>
+        <v>0.001472203992307186</v>
       </c>
       <c r="B19">
-        <v>0.9961533546447754</v>
+        <v>0.9997332096099854</v>
       </c>
       <c r="C19">
-        <v>0.3105689287185669</v>
+        <v>6.178222974995151E-05</v>
       </c>
       <c r="D19">
-        <v>0.9650953412055969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.009330163709819317</v>
+        <v>0.0005004773265682161</v>
       </c>
       <c r="B20">
-        <v>0.9965561628341675</v>
+        <v>0.9998666048049927</v>
       </c>
       <c r="C20">
-        <v>0.06204283982515335</v>
+        <v>8.408886969846208E-06</v>
       </c>
       <c r="D20">
-        <v>0.9806885123252869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.009298390708863735</v>
+        <v>0.0004677782417275012</v>
       </c>
       <c r="B21">
-        <v>0.9964151978492737</v>
+        <v>0.9999333024024963</v>
       </c>
       <c r="C21">
-        <v>0.1735512316226959</v>
+        <v>8.820592483971268E-06</v>
       </c>
       <c r="D21">
-        <v>0.9713925719261169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.008956391364336014</v>
+        <v>0.0006166666280478239</v>
       </c>
       <c r="B22">
-        <v>0.9965561628341675</v>
+        <v>0.999799907207489</v>
       </c>
       <c r="C22">
-        <v>0.1155397593975067</v>
+        <v>4.402541890158318E-06</v>
       </c>
       <c r="D22">
-        <v>0.975170910358429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.009665176272392273</v>
+        <v>7.097471097949892E-05</v>
       </c>
       <c r="B23">
-        <v>0.996294379234314</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.07594694197177887</v>
+        <v>1.718201133371622E-06</v>
       </c>
       <c r="D23">
-        <v>0.978349506855011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.009667582809925079</v>
+        <v>0.0006258102948777378</v>
       </c>
       <c r="B24">
-        <v>0.9963950514793396</v>
+        <v>0.9998443722724915</v>
       </c>
       <c r="C24">
-        <v>0.1759065687656403</v>
+        <v>7.39753340894822E-06</v>
       </c>
       <c r="D24">
-        <v>0.980208694934845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.009989517740905285</v>
+        <v>0.0003977995074819773</v>
       </c>
       <c r="B25">
-        <v>0.9961332678794861</v>
+        <v>0.9998888373374939</v>
       </c>
       <c r="C25">
-        <v>0.1573716700077057</v>
+        <v>7.744501431261597E-07</v>
       </c>
       <c r="D25">
-        <v>0.977389931678772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.009449370205402374</v>
+        <v>0.0003328812308609486</v>
       </c>
       <c r="B26">
-        <v>0.9962742328643799</v>
+        <v>0.9999333024024963</v>
       </c>
       <c r="C26">
-        <v>0.1634015142917633</v>
+        <v>6.717571920944465E-08</v>
       </c>
       <c r="D26">
-        <v>0.9765503406524658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.009820982813835144</v>
+        <v>0.0005650155944749713</v>
       </c>
       <c r="B27">
-        <v>0.99593186378479</v>
+        <v>0.9999110698699951</v>
       </c>
       <c r="C27">
-        <v>0.2300786226987839</v>
+        <v>2.85605011640655E-07</v>
       </c>
       <c r="D27">
-        <v>0.9712126851081848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.009406714700162411</v>
+        <v>0.0001052984152920544</v>
       </c>
       <c r="B28">
-        <v>0.9962742328643799</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C28">
-        <v>0.2333690673112869</v>
+        <v>1.542303635915232E-07</v>
       </c>
       <c r="D28">
-        <v>0.9706129431724548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.01005732268095016</v>
+        <v>0.0004905327223241329</v>
       </c>
       <c r="B29">
-        <v>0.9958512783050537</v>
+        <v>0.9998443722724915</v>
       </c>
       <c r="C29">
-        <v>0.1967078000307083</v>
+        <v>8.310352939133736E-08</v>
       </c>
       <c r="D29">
-        <v>0.9700731635093689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.009267360903322697</v>
+        <v>4.558713044389151E-05</v>
       </c>
       <c r="B30">
-        <v>0.9964756369590759</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.2927499413490295</v>
+        <v>4.463172231794488E-08</v>
       </c>
       <c r="D30">
-        <v>0.9649754166603088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.009580289945006371</v>
+        <v>0.0001870751002570614</v>
       </c>
       <c r="B31">
-        <v>0.9962540864944458</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C31">
-        <v>0.3831363916397095</v>
+        <v>6.872986801909065E-08</v>
       </c>
       <c r="D31">
-        <v>0.9637759327888489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.01025163196027279</v>
+        <v>0.001200908329337835</v>
       </c>
       <c r="B32">
-        <v>0.9957506060600281</v>
+        <v>0.999799907207489</v>
       </c>
       <c r="C32">
-        <v>0.1829472333192825</v>
+        <v>9.795497390996388E-08</v>
       </c>
       <c r="D32">
-        <v>0.9690536260604858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.009573078714311123</v>
+        <v>6.418203702196479E-05</v>
       </c>
       <c r="B33">
-        <v>0.9962540864944458</v>
+        <v>0.9999777674674988</v>
       </c>
       <c r="C33">
-        <v>0.2682713866233826</v>
+        <v>2.478852856313551E-08</v>
       </c>
       <c r="D33">
-        <v>0.9683939218521118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.01009725034236908</v>
+        <v>0.0001744667533785105</v>
       </c>
       <c r="B34">
-        <v>0.9960728287696838</v>
+        <v>0.9999333024024963</v>
       </c>
       <c r="C34">
-        <v>0.3443035185337067</v>
+        <v>5.552081105975049E-08</v>
       </c>
       <c r="D34">
-        <v>0.9718124270439148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.009603223763406277</v>
+        <v>0.0004471678985282779</v>
       </c>
       <c r="B35">
-        <v>0.9962137937545776</v>
+        <v>0.9999333024024963</v>
       </c>
       <c r="C35">
-        <v>0.231240525841713</v>
+        <v>8.609204016352123E-09</v>
       </c>
       <c r="D35">
-        <v>0.9694734215736389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0098005635663867</v>
+        <v>0.0002008324809139594</v>
       </c>
       <c r="B36">
-        <v>0.9958915710449219</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C36">
-        <v>0.1503342390060425</v>
+        <v>4.0897074171653E-08</v>
       </c>
       <c r="D36">
-        <v>0.973971426486969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.01015686243772507</v>
+        <v>0.000579295156057924</v>
       </c>
       <c r="B37">
-        <v>0.9959721565246582</v>
+        <v>0.9998888373374939</v>
       </c>
       <c r="C37">
-        <v>0.3093985617160797</v>
+        <v>2.025707779296226E-08</v>
       </c>
       <c r="D37">
-        <v>0.9712726473808289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009744091890752316</v>
+        <v>4.519310459727421E-05</v>
       </c>
       <c r="B38">
-        <v>0.996294379234314</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.1099157631397247</v>
+        <v>8.683713303980767E-09</v>
       </c>
       <c r="D38">
-        <v>0.97990882396698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.009700843133032322</v>
+        <v>1.204035015689442E-05</v>
       </c>
       <c r="B39">
-        <v>0.9960728287696838</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.1055428311228752</v>
+        <v>3.71846065050363E-09</v>
       </c>
       <c r="D39">
-        <v>0.9798488616943359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.009139979258179665</v>
+        <v>0.0004707180196419358</v>
       </c>
       <c r="B40">
-        <v>0.9963547587394714</v>
+        <v>0.9999110698699951</v>
       </c>
       <c r="C40">
-        <v>0.1240906268358231</v>
+        <v>8.068116585491225E-06</v>
       </c>
       <c r="D40">
-        <v>0.9797289371490479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.009362573735415936</v>
+        <v>0.001121267559938133</v>
       </c>
       <c r="B41">
-        <v>0.9961936473846436</v>
+        <v>0.9998221397399902</v>
       </c>
       <c r="C41">
-        <v>0.1166778355836868</v>
+        <v>4.216323645778175E-08</v>
       </c>
       <c r="D41">
-        <v>0.9787693619728088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.009473733603954315</v>
+        <v>0.00025539769558236</v>
       </c>
       <c r="B42">
-        <v>0.9960728287696838</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C42">
-        <v>0.1442940086126328</v>
+        <v>2.249709218915541E-08</v>
       </c>
       <c r="D42">
-        <v>0.9794290661811829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.009274868294596672</v>
+        <v>0.0002959213161375374</v>
       </c>
       <c r="B43">
-        <v>0.996314525604248</v>
+        <v>0.9999777674674988</v>
       </c>
       <c r="C43">
-        <v>0.1640205383300781</v>
+        <v>5.667310176704632E-09</v>
       </c>
       <c r="D43">
-        <v>0.9734916687011719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.009323383681476116</v>
+        <v>0.0002157379785785452</v>
       </c>
       <c r="B44">
-        <v>0.9964151978492737</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C44">
-        <v>0.1757345795631409</v>
+        <v>1.002035521224798E-08</v>
       </c>
       <c r="D44">
-        <v>0.973311722278595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.009857775643467903</v>
+        <v>1.516329302830854E-05</v>
       </c>
       <c r="B45">
-        <v>0.9961533546447754</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.2958787083625793</v>
+        <v>1.130474203137055E-07</v>
       </c>
       <c r="D45">
-        <v>0.971152663230896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0102083683013916</v>
+        <v>0.001264775404706597</v>
       </c>
       <c r="B46">
-        <v>0.9960325360298157</v>
+        <v>0.9998443722724915</v>
       </c>
       <c r="C46">
-        <v>0.2085209339857101</v>
+        <v>3.569624595911591E-07</v>
       </c>
       <c r="D46">
-        <v>0.9766103029251099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.009398402646183968</v>
+        <v>8.661568426759914E-05</v>
       </c>
       <c r="B47">
-        <v>0.9962540864944458</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="C47">
-        <v>0.2676562070846558</v>
+        <v>2.064644775146007E-07</v>
       </c>
       <c r="D47">
-        <v>0.9762504696846008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.009122703224420547</v>
+        <v>0.000384834420401603</v>
       </c>
       <c r="B48">
-        <v>0.9964756369590759</v>
+        <v>0.9998888373374939</v>
       </c>
       <c r="C48">
-        <v>0.3532766401767731</v>
+        <v>1.091211743187159E-07</v>
       </c>
       <c r="D48">
-        <v>0.9671944379806519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.009525710716843605</v>
+        <v>3.725164060597308E-05</v>
       </c>
       <c r="B49">
-        <v>0.996294379234314</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.159237340092659</v>
+        <v>2.759467854218656E-08</v>
       </c>
       <c r="D49">
-        <v>0.974571168422699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.00971679575741291</v>
+        <v>3.334589200676419E-05</v>
       </c>
       <c r="B50">
-        <v>0.9964756369590759</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.2286625355482101</v>
+        <v>2.289840494995588E-08</v>
       </c>
       <c r="D50">
-        <v>0.9811083078384399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.008815038949251175</v>
+        <v>0.0003026526537723839</v>
       </c>
       <c r="B51">
-        <v>0.9966367483139038</v>
+        <v>0.9999333024024963</v>
       </c>
       <c r="C51">
-        <v>0.07393866032361984</v>
+        <v>9.520169541588075E-09</v>
       </c>
       <c r="D51">
-        <v>0.9815881252288818</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_12.xlsx
+++ b/run_log/run_results/train_history/training_history_run_12.xlsx
@@ -395,125 +395,125 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0824323296546936</v>
+        <v>0.06106854602694511</v>
       </c>
       <c r="B2">
-        <v>0.9748566150665283</v>
+        <v>0.9811328649520874</v>
       </c>
       <c r="C2">
-        <v>0.006113679148256779</v>
+        <v>0.01186467427760363</v>
       </c>
       <c r="D2">
-        <v>0.9988725185394287</v>
+        <v>0.9981154799461365</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01370509807020426</v>
+        <v>0.01020237058401108</v>
       </c>
       <c r="B3">
-        <v>0.9979769587516785</v>
+        <v>0.998121440410614</v>
       </c>
       <c r="C3">
-        <v>0.004111779853701591</v>
+        <v>0.008072340860962868</v>
       </c>
       <c r="D3">
-        <v>0.9991857409477234</v>
+        <v>0.9982501268386841</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.007159413304179907</v>
+        <v>0.005957551766186953</v>
       </c>
       <c r="B4">
-        <v>0.9984883069992065</v>
+        <v>0.9985502362251282</v>
       </c>
       <c r="C4">
-        <v>0.001753899501636624</v>
+        <v>0.003101204754784703</v>
       </c>
       <c r="D4">
-        <v>0.9993109703063965</v>
+        <v>0.9991923570632935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.00332766305655241</v>
+        <v>0.00222117337398231</v>
       </c>
       <c r="B5">
-        <v>0.9990440607070923</v>
+        <v>0.9993669986724854</v>
       </c>
       <c r="C5">
-        <v>0.001535735558718443</v>
+        <v>0.00223432038910687</v>
       </c>
       <c r="D5">
-        <v>0.9996868371963501</v>
+        <v>0.9991923570632935</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002264477545395494</v>
+        <v>0.0019832793623209</v>
       </c>
       <c r="B6">
-        <v>0.9994664788246155</v>
+        <v>0.9994282722473145</v>
       </c>
       <c r="C6">
-        <v>0.0009781834669411182</v>
+        <v>0.002238910878077149</v>
       </c>
       <c r="D6">
-        <v>0.9996868371963501</v>
+        <v>0.9993269443511963</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.002399859018623829</v>
+        <v>0.002052647760137916</v>
       </c>
       <c r="B7">
-        <v>0.999422013759613</v>
+        <v>0.9995507597923279</v>
       </c>
       <c r="C7">
-        <v>8.987339970190078E-05</v>
+        <v>0.000468796119093895</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9995961785316467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001158138504251838</v>
+        <v>0.001596540445461869</v>
       </c>
       <c r="B8">
-        <v>0.9997109770774841</v>
+        <v>0.9996733069419861</v>
       </c>
       <c r="C8">
-        <v>3.616682442952879E-05</v>
+        <v>0.0005505777662619948</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001736437901854515</v>
+        <v>0.0009262675885111094</v>
       </c>
       <c r="B9">
-        <v>0.9996442794799805</v>
+        <v>0.9997754096984863</v>
       </c>
       <c r="C9">
-        <v>0.0001349693920928985</v>
+        <v>0.0003883853496517986</v>
       </c>
       <c r="D9">
-        <v>0.9999373555183411</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001339558861218393</v>
+        <v>0.001813531736843288</v>
       </c>
       <c r="B10">
-        <v>0.9996665120124817</v>
+        <v>0.9995712041854858</v>
       </c>
       <c r="C10">
-        <v>2.29524121095892E-05</v>
+        <v>0.0002218400913989171</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -521,27 +521,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001065940363332629</v>
+        <v>0.001062522758729756</v>
       </c>
       <c r="B11">
-        <v>0.9997776746749878</v>
+        <v>0.9997345805168152</v>
       </c>
       <c r="C11">
-        <v>2.381267950113397E-05</v>
+        <v>0.0002457831287756562</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0003433195233810693</v>
+        <v>0.0007396474247798324</v>
       </c>
       <c r="B12">
-        <v>0.9999555349349976</v>
+        <v>0.9997754096984863</v>
       </c>
       <c r="C12">
-        <v>1.132065426645568E-05</v>
+        <v>9.650475112721324E-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -549,27 +549,27 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0007776007987558842</v>
+        <v>0.0007843737257644534</v>
       </c>
       <c r="B13">
-        <v>0.9998221397399902</v>
+        <v>0.9997549653053284</v>
       </c>
       <c r="C13">
-        <v>3.808496330748312E-05</v>
+        <v>0.000221568247070536</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.001303939265199006</v>
+        <v>0.0004416233859956264</v>
       </c>
       <c r="B14">
-        <v>0.9997332096099854</v>
+        <v>0.9998775124549866</v>
       </c>
       <c r="C14">
-        <v>8.416981290793046E-05</v>
+        <v>0.000126576327602379</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,27 +577,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.001029768958687782</v>
+        <v>0.0002139538555638865</v>
       </c>
       <c r="B15">
-        <v>0.9998221397399902</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C15">
-        <v>2.416085408185609E-05</v>
+        <v>0.0001384565985063091</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0008170958026312292</v>
+        <v>0.001017906935885549</v>
       </c>
       <c r="B16">
-        <v>0.9997776746749878</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C16">
-        <v>8.396458724746481E-06</v>
+        <v>1.710674223431852E-05</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,27 +605,27 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0008297882159240544</v>
+        <v>0.000304548884741962</v>
       </c>
       <c r="B17">
-        <v>0.9997554421424866</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C17">
-        <v>0.0002803757088258862</v>
+        <v>4.99692396260798E-06</v>
       </c>
       <c r="D17">
-        <v>0.9999373555183411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0007838148158043623</v>
+        <v>0.0006463424651883543</v>
       </c>
       <c r="B18">
-        <v>0.9998443722724915</v>
+        <v>0.9998366236686707</v>
       </c>
       <c r="C18">
-        <v>4.926147448713891E-05</v>
+        <v>9.37754703045357E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,181 +633,181 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.001472203992307186</v>
+        <v>0.0002065370354102924</v>
       </c>
       <c r="B19">
-        <v>0.9997332096099854</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C19">
-        <v>6.178222974995151E-05</v>
+        <v>0.0005663647898472846</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0005004773265682161</v>
+        <v>0.0008090437622740865</v>
       </c>
       <c r="B20">
-        <v>0.9998666048049927</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C20">
-        <v>8.408886969846208E-06</v>
+        <v>0.0004376985889393836</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004677782417275012</v>
+        <v>0.0004113477189093828</v>
       </c>
       <c r="B21">
-        <v>0.9999333024024963</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C21">
-        <v>8.820592483971268E-06</v>
+        <v>0.0003303957055322826</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0006166666280478239</v>
+        <v>2.181418312829919E-05</v>
       </c>
       <c r="B22">
-        <v>0.999799907207489</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>4.402541890158318E-06</v>
+        <v>0.00043743837159127</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>7.097471097949892E-05</v>
+        <v>0.000405898317694664</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C23">
-        <v>1.718201133371622E-06</v>
+        <v>0.0002248123346362263</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0006258102948777378</v>
+        <v>0.0004354831180535257</v>
       </c>
       <c r="B24">
-        <v>0.9998443722724915</v>
+        <v>0.9998775124549866</v>
       </c>
       <c r="C24">
-        <v>7.39753340894822E-06</v>
+        <v>0.001214518211781979</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0003977995074819773</v>
+        <v>0.0005512360366992652</v>
       </c>
       <c r="B25">
-        <v>0.9998888373374939</v>
+        <v>0.9997549653053284</v>
       </c>
       <c r="C25">
-        <v>7.744501431261597E-07</v>
+        <v>0.0001320185983786359</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0003328812308609486</v>
+        <v>0.0001323652977589518</v>
       </c>
       <c r="B26">
-        <v>0.9999333024024963</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C26">
-        <v>6.717571920944465E-08</v>
+        <v>0.001012144843116403</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0005650155944749713</v>
+        <v>0.0002342577063245699</v>
       </c>
       <c r="B27">
-        <v>0.9999110698699951</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C27">
-        <v>2.85605011640655E-07</v>
+        <v>0.0008358151535503566</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001052984152920544</v>
+        <v>0.0003538480377756059</v>
       </c>
       <c r="B28">
-        <v>0.9999555349349976</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C28">
-        <v>1.542303635915232E-07</v>
+        <v>0.0002917610399890691</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004905327223241329</v>
+        <v>0.0004108251596335322</v>
       </c>
       <c r="B29">
-        <v>0.9998443722724915</v>
+        <v>0.9999183416366577</v>
       </c>
       <c r="C29">
-        <v>8.310352939133736E-08</v>
+        <v>0.001576379174366593</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>4.558713044389151E-05</v>
+        <v>5.75275880692061E-05</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C30">
-        <v>4.463172231794488E-08</v>
+        <v>0.003649125341325998</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0001870751002570614</v>
+        <v>0.000136215821839869</v>
       </c>
       <c r="B31">
-        <v>0.9999555349349976</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C31">
-        <v>6.872986801909065E-08</v>
+        <v>8.505047298967838E-05</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,27 +815,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.001200908329337835</v>
+        <v>0.0001649706391617656</v>
       </c>
       <c r="B32">
-        <v>0.999799907207489</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C32">
-        <v>9.795497390996388E-08</v>
+        <v>0.001472195377573371</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>6.418203702196479E-05</v>
+        <v>0.000499738089274615</v>
       </c>
       <c r="B33">
-        <v>0.9999777674674988</v>
+        <v>0.9998978972434998</v>
       </c>
       <c r="C33">
-        <v>2.478852856313551E-08</v>
+        <v>0.0001446873357053846</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,111 +843,111 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001744667533785105</v>
+        <v>0.0002880675892811269</v>
       </c>
       <c r="B34">
-        <v>0.9999333024024963</v>
+        <v>0.9998978972434998</v>
       </c>
       <c r="C34">
-        <v>5.552081105975049E-08</v>
+        <v>0.001405739807523787</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0004471678985282779</v>
+        <v>5.602732562692836E-05</v>
       </c>
       <c r="B35">
-        <v>0.9999333024024963</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C35">
-        <v>8.609204016352123E-09</v>
+        <v>0.003235064214095473</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0002008324809139594</v>
+        <v>8.298282773466781E-05</v>
       </c>
       <c r="B36">
-        <v>0.9999555349349976</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C36">
-        <v>4.0897074171653E-08</v>
+        <v>0.003270683577284217</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.000579295156057924</v>
+        <v>0.0002091178466798738</v>
       </c>
       <c r="B37">
-        <v>0.9998888373374939</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C37">
-        <v>2.025707779296226E-08</v>
+        <v>0.00365281687118113</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>4.519310459727421E-05</v>
+        <v>5.787932195744361E-07</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>8.683713303980767E-09</v>
+        <v>0.003618230810388923</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.204035015689442E-05</v>
+        <v>0.001060109469108284</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9997957944869995</v>
       </c>
       <c r="C39">
-        <v>3.71846065050363E-09</v>
+        <v>0.0003030379593838006</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9998654127120972</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0004707180196419358</v>
+        <v>1.68683964147931E-05</v>
       </c>
       <c r="B40">
-        <v>0.9999110698699951</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>8.068116585491225E-06</v>
+        <v>0.0009281523525714874</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.001121267559938133</v>
+        <v>0.0002175613917643204</v>
       </c>
       <c r="B41">
-        <v>0.9998221397399902</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C41">
-        <v>4.216323645778175E-08</v>
+        <v>3.142092452890211E-07</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.00025539769558236</v>
+        <v>3.161748463753611E-05</v>
       </c>
       <c r="B42">
-        <v>0.9999555349349976</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>2.249709218915541E-08</v>
+        <v>1.378857206191242E-07</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002959213161375374</v>
+        <v>2.37984841078287E-05</v>
       </c>
       <c r="B43">
-        <v>0.9999777674674988</v>
+        <v>0.999979555606842</v>
       </c>
       <c r="C43">
-        <v>5.667310176704632E-09</v>
+        <v>1.059054888230548E-08</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0002157379785785452</v>
+        <v>0.0004486858379095793</v>
       </c>
       <c r="B44">
-        <v>0.9999555349349976</v>
+        <v>0.9998775124549866</v>
       </c>
       <c r="C44">
-        <v>1.002035521224798E-08</v>
+        <v>1.304711076954845E-06</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,27 +997,27 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1.516329302830854E-05</v>
+        <v>6.916253187227994E-05</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C45">
-        <v>1.130474203137055E-07</v>
+        <v>0.001131820026785135</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.001264775404706597</v>
+        <v>0.0002833192411344498</v>
       </c>
       <c r="B46">
-        <v>0.9998443722724915</v>
+        <v>0.9999387264251709</v>
       </c>
       <c r="C46">
-        <v>3.569624595911591E-07</v>
+        <v>5.508196773007512E-05</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>8.661568426759914E-05</v>
+        <v>3.831179128610529E-06</v>
       </c>
       <c r="B47">
-        <v>0.9999555349349976</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>2.064644775146007E-07</v>
+        <v>4.535919515546993E-07</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.000384834420401603</v>
+        <v>1.744376504575484E-06</v>
       </c>
       <c r="B48">
-        <v>0.9998888373374939</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1.091211743187159E-07</v>
+        <v>9.169063019953683E-08</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3.725164060597308E-05</v>
+        <v>1.436220713912917E-06</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>2.759467854218656E-08</v>
+        <v>4.345042370346164E-08</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,30 +1067,30 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.334589200676419E-05</v>
+        <v>0.0005121473222970963</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9998570680618286</v>
       </c>
       <c r="C50">
-        <v>2.289840494995588E-08</v>
+        <v>0.001869646366685629</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0003026526537723839</v>
+        <v>0.0001955262705450878</v>
       </c>
       <c r="B51">
-        <v>0.9999333024024963</v>
+        <v>0.9999591708183289</v>
       </c>
       <c r="C51">
-        <v>9.520169541588075E-09</v>
+        <v>0.00194473983719945</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9997307658195496</v>
       </c>
     </row>
   </sheetData>
